--- a/数据整理/stocks/A股/深证主板/002970-锐明技术.xlsx
+++ b/数据整理/stocks/A股/深证主板/002970-锐明技术.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000892</t>
+          <t>003601</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>九泰天宝灵活配置混合A</t>
+          <t>申万菱信安鑫精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2339</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001782</t>
+          <t>003602</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合A</t>
+          <t>申万菱信安鑫精选混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001844</t>
+          <t>001782</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合C</t>
+          <t>九泰久益灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>92.38</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.86</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003601</t>
+          <t>001844</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>申万菱信安鑫精选混合A</t>
+          <t>九泰久益灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>29.84</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003602</t>
+          <t>000892</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>申万菱信安鑫精选混合C</t>
+          <t>九泰天宝灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>29.84</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -642,15 +702,23 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>92.60</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.63</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -665,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +754,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -716,15 +794,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>31.41</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.75</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -744,15 +832,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>31.41</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.75</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002970-锐明技术.xlsx
+++ b/数据整理/stocks/A股/深证主板/002970-锐明技术.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -857,4 +858,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002970-锐明技术.xlsx
+++ b/数据整理/stocks/A股/深证主板/002970-锐明技术.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1066,4 +1067,286 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002970-锐明技术.xlsx
+++ b/数据整理/stocks/A股/深证主板/002970-锐明技术.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1349,4 +1350,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002970-锐明技术.xlsx
+++ b/数据整理/stocks/A股/深证主板/002970-锐明技术.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1358,7 +1359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1369,17 +1370,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1389,14 +1410,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -1405,14 +1500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -1421,14 +1516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -1437,13 +1532,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.29</v>
       </c>
     </row>
